--- a/ArtClub/ArtClub/ReportingFolder/Income_Rerpot.xlsx
+++ b/ArtClub/ArtClub/ReportingFolder/Income_Rerpot.xlsx
@@ -7,15 +7,16 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Expenses" sheetId="1" r:id="rId1"/>
-    <sheet name="Income" sheetId="2" r:id="rId2"/>
+    <sheet name="Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Expenses" sheetId="2" r:id="rId2"/>
+    <sheet name="Income" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>User</t>
   </si>
@@ -35,7 +36,7 @@
     <t>Month</t>
   </si>
   <si>
-    <t>dbo</t>
+    <t>None</t>
   </si>
   <si>
     <t>0</t>
@@ -50,22 +51,25 @@
     <t>2018-05</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Ceva</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Intalnire de afaceri</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Testing the event</t>
+    <t>test_user@gmail.com</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Movie Festival</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>Testing the event 3</t>
+  </si>
+  <si>
+    <t>Oprea Sergiu</t>
+  </si>
+  <si>
+    <t>Music Event!</t>
   </si>
   <si>
     <t>Member</t>
@@ -75,12 +79,24 @@
   </si>
   <si>
     <t>400.0</t>
+  </si>
+  <si>
+    <t>Total Costs</t>
+  </si>
+  <si>
+    <t>Total Payments</t>
+  </si>
+  <si>
+    <t>Profit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0%"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -144,16 +160,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -162,6 +181,166 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="0054AC"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="900" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="0054AC"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Summary Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Summary Chart</c:v>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="8989E4"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="892E5B"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Summary!$A$1:$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Total Costs</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total Payments</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Summary!$C$20:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:firstSliceAng val="90"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -449,13 +628,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>800</v>
+      </c>
+      <c r="B2" s="2">
+        <v>800</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="5" width="12.7109375" customWidth="1"/>
@@ -484,82 +714,82 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -568,15 +798,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="5" width="12.7109375" customWidth="1"/>
@@ -588,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -601,19 +831,36 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
